--- a/TouchGFX/assets/texts/texts.xlsx
+++ b/TouchGFX/assets/texts/texts.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67231" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73156" uniqueCount="377">
   <si>
     <t xml:space="preserve">Font</t>
   </si>
@@ -1109,6 +1109,45 @@
   </si>
   <si>
     <t xml:space="preserve">SingleUseId225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ResourceId3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahnschrift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahnschrift_20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bahnschrift_40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRLNSR.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOKOS.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BRITANIC.TTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calibrib.ttf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor_Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor_Label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sensor_Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z,a-z,0x20,0x24,0x2C,0x2A,0x25,0xA7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-9,A-Z,a-z,0x20,0x24,0x2C,0x2A,0x25,0xB0</t>
   </si>
 </sst>
 </file>
@@ -2274,19 +2313,19 @@
     </row>
     <row r="4" spans="2:16">
       <c r="B4" t="s">
-        <v>275</v>
+        <v>372</v>
       </c>
       <c r="C4" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="D4">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>167</v>
@@ -2295,10 +2334,10 @@
         <v>46</v>
       </c>
       <c r="I4" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="J4" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="L4" s="4" t="s">
         <v>9</v>
@@ -2318,10 +2357,10 @@
     </row>
     <row r="5" spans="2:16">
       <c r="B5" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="C5" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="D5">
         <v>20</v>
@@ -2330,7 +2369,7 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>167</v>
@@ -2339,10 +2378,10 @@
         <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="J5" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>1</v>
@@ -2360,19 +2399,19 @@
     </row>
     <row r="6" spans="2:16">
       <c r="B6" t="s">
-        <v>288</v>
+        <v>374</v>
       </c>
       <c r="C6" t="s">
-        <v>274</v>
+        <v>52</v>
       </c>
       <c r="D6">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>167</v>
@@ -2381,10 +2420,10 @@
         <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>354</v>
+        <v>376</v>
       </c>
       <c r="J6" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>2</v>
@@ -2401,27 +2440,6 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" t="s">
-        <v>290</v>
-      </c>
-      <c r="C7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7">
-        <v>120</v>
-      </c>
-      <c r="E7">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>167</v>
-      </c>
-      <c r="H7" t="s">
-        <v>46</v>
-      </c>
       <c r="I7" t="s">
         <v>354</v>
       </c>
@@ -2449,7 +2467,7 @@
         <v>354</v>
       </c>
       <c r="J8" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>8</v>
@@ -2470,7 +2488,7 @@
         <v>354</v>
       </c>
       <c r="J9" t="s">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="L9" s="11" t="s">
         <v>6</v>
@@ -2598,10 +2616,10 @@
     </row>
     <row r="4">
       <c r="B4" t="s">
-        <v>347</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="D4" t="s">
         <v>44</v>
@@ -2610,15 +2628,15 @@
         <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>137</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="s">
-        <v>348</v>
+        <v>49</v>
       </c>
       <c r="C5" t="s">
-        <v>276</v>
+        <v>373</v>
       </c>
       <c r="D5" t="s">
         <v>44</v>
@@ -2627,55 +2645,791 @@
         <v>45</v>
       </c>
       <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>372</v>
+      </c>
+      <c r="D10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C12" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
+        <v>372</v>
+      </c>
+      <c r="D13" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C14" t="s">
+        <v>374</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" t="s">
+        <v>374</v>
+      </c>
+      <c r="D16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" t="s">
+        <v>373</v>
+      </c>
+      <c r="D17" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" t="s">
+        <v>372</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>373</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>374</v>
+      </c>
+      <c r="D20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>372</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E22" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" t="s">
+        <v>373</v>
+      </c>
+      <c r="D23" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" t="s">
+        <v>372</v>
+      </c>
+      <c r="D24" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" t="s">
+        <v>373</v>
+      </c>
+      <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>374</v>
+      </c>
+      <c r="D26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" t="s">
+        <v>372</v>
+      </c>
+      <c r="D27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" t="s">
+        <v>92</v>
+      </c>
+      <c r="C28" t="s">
+        <v>374</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="6"/>
-    <row r="7"/>
-    <row r="8"/>
-    <row r="9"/>
-    <row r="10"/>
-    <row r="11"/>
-    <row r="12"/>
-    <row r="13"/>
-    <row r="14"/>
-    <row r="15"/>
-    <row r="16"/>
-    <row r="17"/>
-    <row r="18"/>
-    <row r="19"/>
-    <row r="20"/>
-    <row r="21"/>
-    <row r="22"/>
-    <row r="23"/>
-    <row r="24"/>
-    <row r="25"/>
-    <row r="26"/>
-    <row r="27"/>
-    <row r="28"/>
-    <row r="29"/>
-    <row r="30"/>
-    <row r="31"/>
-    <row r="32"/>
-    <row r="33"/>
-    <row r="34"/>
-    <row r="35"/>
-    <row r="36"/>
-    <row r="37"/>
-    <row r="38"/>
-    <row r="39"/>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="44"/>
-    <row r="45"/>
-    <row r="46"/>
-    <row r="47"/>
-    <row r="48"/>
-    <row r="49"/>
-    <row r="50"/>
-    <row r="51"/>
+    <row r="29">
+      <c r="B29" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" t="s">
+        <v>372</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" t="s">
+        <v>373</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="B31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" t="s">
+        <v>372</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>372</v>
+      </c>
+      <c r="D32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E32" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
+        <v>372</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" t="s">
+        <v>372</v>
+      </c>
+      <c r="D34" t="s">
+        <v>44</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>372</v>
+      </c>
+      <c r="D35" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>372</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>372</v>
+      </c>
+      <c r="D37" t="s">
+        <v>44</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
+        <v>373</v>
+      </c>
+      <c r="D39" t="s">
+        <v>44</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s">
+        <v>112</v>
+      </c>
+      <c r="C40" t="s">
+        <v>374</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="s">
+        <v>114</v>
+      </c>
+      <c r="C41" t="s">
+        <v>373</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+      <c r="E41" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>374</v>
+      </c>
+      <c r="D42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E42" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" t="s">
+        <v>373</v>
+      </c>
+      <c r="D43" t="s">
+        <v>44</v>
+      </c>
+      <c r="E43" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s">
+        <v>120</v>
+      </c>
+      <c r="C44" t="s">
+        <v>374</v>
+      </c>
+      <c r="D44" t="s">
+        <v>44</v>
+      </c>
+      <c r="E44" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" t="s">
+        <v>122</v>
+      </c>
+      <c r="C45" t="s">
+        <v>373</v>
+      </c>
+      <c r="D45" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s">
+        <v>374</v>
+      </c>
+      <c r="D46" t="s">
+        <v>44</v>
+      </c>
+      <c r="E46" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="s">
+        <v>124</v>
+      </c>
+      <c r="C47" t="s">
+        <v>373</v>
+      </c>
+      <c r="D47" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s">
+        <v>125</v>
+      </c>
+      <c r="C48" t="s">
+        <v>374</v>
+      </c>
+      <c r="D48" t="s">
+        <v>44</v>
+      </c>
+      <c r="E48" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C49" t="s">
+        <v>373</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" t="s">
+        <v>373</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" t="s">
+        <v>129</v>
+      </c>
+      <c r="C51" t="s">
+        <v>374</v>
+      </c>
+      <c r="D51" t="s">
+        <v>44</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="52"/>
     <row r="53"/>
     <row r="54"/>
